--- a/Sample_log_Magdalena_coordinates.xlsx
+++ b/Sample_log_Magdalena_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HD_2019/ASP_2016/1.Magdalena/Magdalena_field_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4F9A44-C4E9-6A46-9EA2-27991A804649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11688CA6-D0A5-D24A-AE85-0BB3C3F07CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8800" yWindow="3100" windowWidth="24960" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>Sample ID</t>
   </si>
@@ -78,9 +78,6 @@
     <t>MR150214-WP801</t>
   </si>
   <si>
-    <t>MR140214-WP416</t>
-  </si>
-  <si>
     <t>MR140214-WP792</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>MR150214-WP834</t>
   </si>
   <si>
-    <t>MR150214-WP93</t>
-  </si>
-  <si>
     <t>MR150214-WP836</t>
   </si>
   <si>
@@ -123,12 +117,6 @@
     <t>MR150214-WP841</t>
   </si>
   <si>
-    <t>MR150214-WP104</t>
-  </si>
-  <si>
-    <t>MR150214-WP121</t>
-  </si>
-  <si>
     <t>MR150214-WP843</t>
   </si>
   <si>
@@ -138,9 +126,6 @@
     <t>MR150214-WP846</t>
   </si>
   <si>
-    <t>MR150214-WP128</t>
-  </si>
-  <si>
     <t>MR150214-WP849</t>
   </si>
   <si>
@@ -444,24 +429,6 @@
     <t>MR240214-WP042C</t>
   </si>
   <si>
-    <t>MR240214-WP574</t>
-  </si>
-  <si>
-    <t>MR240214-WP575</t>
-  </si>
-  <si>
-    <t>MR240214-WP578</t>
-  </si>
-  <si>
-    <t>MR240214-WP579</t>
-  </si>
-  <si>
-    <t>MR240214-WP580</t>
-  </si>
-  <si>
-    <t>MR240214-WP586</t>
-  </si>
-  <si>
     <t>MR250214-WP47A</t>
   </si>
   <si>
@@ -471,9 +438,6 @@
     <t>MR250214-WP47C</t>
   </si>
   <si>
-    <t>MR250214-WP787</t>
-  </si>
-  <si>
     <t>MR260214-WP51</t>
   </si>
   <si>
@@ -504,28 +468,10 @@
     <t>MR260214-RTK195C</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Lat</t>
-  </si>
-  <si>
     <t>Long</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample depth </t>
-  </si>
-  <si>
-    <t>1.3-1.4</t>
-  </si>
-  <si>
-    <t>13-15</t>
-  </si>
-  <si>
-    <t>10 to 11</t>
-  </si>
-  <si>
-    <t>GPS</t>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +966,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1031,7 +977,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1411,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1422,755 +1367,733 @@
     <col min="1" max="1" width="9.1640625" style="1"/>
     <col min="2" max="2" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>8.8315599999999996</v>
-      </c>
-      <c r="B2" s="1">
-        <v>-74.175089999999997</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>8.7668400000000002</v>
+      </c>
+      <c r="B2" s="4">
+        <v>-74.188149999999993</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>8.8315599999999996</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-74.175089999999997</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>8.7671299999999999</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-74.188429999999997</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>8.8315599999999996</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-74.175089999999997</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>8.7671299999999999</v>
+      </c>
+      <c r="B4" s="4">
+        <v>-74.188429999999997</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>8.8315599999999996</v>
-      </c>
-      <c r="B5" s="1">
-        <v>-74.175089999999997</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>8.7674800000000008</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-74.210939999999994</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>8.8315599999999996</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-74.175089999999997</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>8.7679200000000002</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-74.210809999999995</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>8.8194400000000002</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-74.197389999999999</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>8.7734299999999994</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-74.185599999999994</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>8.8194400000000002</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-74.197389999999999</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>8.7735199999999995</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-74.185220000000001</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8.8194400000000002</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-74.197389999999999</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8.7736300000000007</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-74.186030000000002</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8.8194400000000002</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-74.197389999999999</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>8.7838899999999995</v>
+      </c>
+      <c r="B10" s="3">
+        <v>74.195779999999999</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8.7838899999999995</v>
+      </c>
+      <c r="B11" s="3">
+        <v>74.195779999999999</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>8.7838899999999995</v>
+      </c>
+      <c r="B12" s="3">
+        <v>74.195779999999999</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>8.7838899999999995</v>
+      </c>
+      <c r="B13" s="3">
+        <v>74.195779999999999</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>8.7887299999999993</v>
+      </c>
+      <c r="B14" s="4">
+        <v>-74.187020000000004</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>8.7887500000000003</v>
+      </c>
+      <c r="B15" s="4">
+        <v>-74.186899999999994</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>8.7887500000000003</v>
+      </c>
+      <c r="B16" s="7">
+        <v>-74.201861111111114</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>8.7888800000000007</v>
+      </c>
+      <c r="B17" s="4">
+        <v>-74.186539999999994</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>8.7888800000000007</v>
+      </c>
+      <c r="B18" s="4">
+        <v>-74.186539999999994</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>8.7889166666666672</v>
+      </c>
+      <c r="B19" s="7">
+        <v>-74.201999999999998</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>8.7889166666666672</v>
+      </c>
+      <c r="B20" s="7">
+        <v>-74.201999999999998</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>8.7889700000000008</v>
+      </c>
+      <c r="B21">
+        <v>-74.186850000000007</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>8.7891600000000007</v>
+      </c>
+      <c r="B22">
+        <v>-74.21808</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>8.7895833333333329</v>
+      </c>
+      <c r="B23" s="7">
+        <v>-74.201333333333338</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>8.7895833333333329</v>
+      </c>
+      <c r="B24" s="7">
+        <v>-74.201333333333338</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>8.7932100000000002</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-74.206320000000005</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>8.7938399999999994</v>
+      </c>
+      <c r="B26">
+        <v>-74.209530000000001</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>8.7939600000000002</v>
+      </c>
+      <c r="B27">
+        <v>-74.201710000000006</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>8.7941900000000004</v>
+      </c>
+      <c r="B28">
+        <v>-74.202079999999995</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>8.7964400000000005</v>
+      </c>
+      <c r="B29" s="4">
+        <v>-74.206280000000007</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>8.7976299999999998</v>
+      </c>
+      <c r="B30">
+        <v>-74.212710000000001</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>8.7977299999999996</v>
+      </c>
+      <c r="B31">
+        <v>-74.212829999999997</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>8.7977500000000006</v>
+      </c>
+      <c r="B32">
+        <v>-74.212959999999995</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>8.79861</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-74.21396</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>8.8001299999999993</v>
+      </c>
+      <c r="B34" s="1">
+        <v>-74.198499999999996</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>8.8001299999999993</v>
+      </c>
+      <c r="B35" s="1">
+        <v>-74.198499999999996</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>8.8001299999999993</v>
+      </c>
+      <c r="B36" s="1">
+        <v>-74.198499999999996</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>8.80016</v>
+      </c>
+      <c r="B37">
+        <v>-74.190550000000002</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>8.80016</v>
+      </c>
+      <c r="B38">
+        <v>-74.190550000000002</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>8.8005700000000004</v>
+      </c>
+      <c r="B39" s="4">
+        <v>-74.190690000000004</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>8.8005700000000004</v>
+      </c>
+      <c r="B40">
+        <v>-74.190690000000004</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>8.8008299999999995</v>
+      </c>
+      <c r="B41">
+        <v>-74.190520000000006</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>8.80091</v>
+      </c>
+      <c r="B42">
+        <v>-74.190330000000003</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>8.8009500000000003</v>
+      </c>
+      <c r="B43">
+        <v>-74.190330000000003</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>8.8011800000000004</v>
+      </c>
+      <c r="B44">
+        <v>-74.189959999999999</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>8.8011900000000001</v>
+      </c>
+      <c r="B45">
+        <v>-74.18965</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>8.8012099999999993</v>
+      </c>
+      <c r="B46">
+        <v>-74.189819999999997</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>8.8013200000000005</v>
+      </c>
+      <c r="B47">
+        <v>-74.210340000000002</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>8.8014869999999998</v>
+      </c>
+      <c r="B48" s="1">
+        <v>-74.216683000000003</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>8.8036200000000004</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B49" s="1">
         <v>-74.222319999999996</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>8.8155599999999996</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-74.203819999999993</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>8.8148199999999992</v>
-      </c>
-      <c r="B13" s="1">
-        <v>-74.204059999999998</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>8.8148099999999996</v>
-      </c>
-      <c r="B14" s="1">
-        <v>-74.20384</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>8.8146599999999999</v>
-      </c>
-      <c r="B15" s="1">
-        <v>-74.204099999999997</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>8.8139299999999992</v>
-      </c>
-      <c r="B16" s="1">
-        <v>-74.204120000000003</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>8.8158300000000001</v>
-      </c>
-      <c r="B17" s="1">
-        <v>-74.20205</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>8.8131000000000004</v>
-      </c>
-      <c r="B18" s="1">
-        <v>-74.203890000000001</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>8.8210200000000007</v>
-      </c>
-      <c r="B20">
-        <v>-74.187759999999997</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>8.82334</v>
-      </c>
-      <c r="B21">
-        <v>-74.188280000000006</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>8.8228200000000001</v>
-      </c>
-      <c r="B22">
-        <v>-74.187910000000002</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>8.8236500000000007</v>
-      </c>
-      <c r="B23">
-        <v>-74.187010000000001</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>8.8240300000000005</v>
-      </c>
-      <c r="B24">
-        <v>-74.186880000000002</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>8.8244100000000003</v>
-      </c>
-      <c r="B25">
-        <v>-74.186959999999999</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>8.8251500000000007</v>
-      </c>
-      <c r="B26">
-        <v>-74.186980000000005</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>8.8262999999999998</v>
-      </c>
-      <c r="B27">
-        <v>-74.186610000000002</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>8.8275000000000006</v>
-      </c>
-      <c r="B28">
-        <v>-74.186310000000006</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>8.8270700000000009</v>
-      </c>
-      <c r="B30">
-        <v>-74.190299999999993</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>8.8262</v>
-      </c>
-      <c r="B31">
-        <v>-74.190420000000003</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>8.8248200000000008</v>
-      </c>
-      <c r="B32">
-        <v>-74.190420000000003</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>8.8240800000000004</v>
-      </c>
-      <c r="B33">
-        <v>-74.190259999999995</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>8.8242700000000003</v>
-      </c>
-      <c r="B36">
-        <v>-74.182329999999993</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>8.8252100000000002</v>
-      </c>
-      <c r="B37">
-        <v>-74.182509999999994</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>8.8262499999999999</v>
-      </c>
-      <c r="B38">
-        <v>-74.182829999999996</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>8.8280799999999999</v>
-      </c>
-      <c r="B40">
-        <v>-74.183999999999997</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>8.8283299999999993</v>
-      </c>
-      <c r="B41">
-        <v>-74.183390000000003</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>8.8222299999999994</v>
-      </c>
-      <c r="B42">
-        <v>-74.186019999999999</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>8.8222299999999994</v>
-      </c>
-      <c r="B43">
-        <v>-74.186019999999999</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>8.8222299999999994</v>
-      </c>
-      <c r="B44">
-        <v>-74.186019999999999</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>8.7679200000000002</v>
-      </c>
-      <c r="B45">
-        <v>-74.210809999999995</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>8.7674800000000008</v>
-      </c>
-      <c r="B46">
-        <v>-74.210939999999994</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>8.7671299999999999</v>
-      </c>
-      <c r="B47">
-        <v>-74.188429999999997</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>8.7671299999999999</v>
-      </c>
-      <c r="B48">
-        <v>-74.188429999999997</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>8.7668400000000002</v>
-      </c>
-      <c r="B49">
-        <v>-74.188149999999993</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>8.7735199999999995</v>
+        <v>8.8052899999999994</v>
       </c>
       <c r="B50">
-        <v>-74.185220000000001</v>
+        <v>-74.206140000000005</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>8.7734299999999994</v>
+        <v>8.8052899999999994</v>
       </c>
       <c r="B51">
-        <v>-74.185599999999994</v>
+        <v>-74.206119999999999</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>8.7736300000000007</v>
+        <v>8.8054199999999998</v>
       </c>
       <c r="B52">
-        <v>-74.186030000000002</v>
+        <v>-74.206149999999994</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>8.7888800000000007</v>
+        <v>8.8061600000000002</v>
       </c>
       <c r="B53">
-        <v>-74.186539999999994</v>
+        <v>-74.203320000000005</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>8.7888800000000007</v>
+        <v>8.8070500000000003</v>
       </c>
       <c r="B54">
-        <v>-74.186539999999994</v>
+        <v>-74.200180000000003</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>8.7889700000000008</v>
+        <v>8.8070500000000003</v>
       </c>
       <c r="B55">
-        <v>-74.186850000000007</v>
+        <v>-74.200180000000003</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>8.7887500000000003</v>
+        <v>8.8070500000000003</v>
       </c>
       <c r="B56">
-        <v>-74.186899999999994</v>
+        <v>-74.200180000000003</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>8.7887299999999993</v>
+        <v>8.8071900000000003</v>
       </c>
       <c r="B57">
-        <v>-74.187020000000004</v>
+        <v>-74.200410000000005</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>8.8011900000000001</v>
+        <v>8.8086900000000004</v>
       </c>
       <c r="B58">
-        <v>-74.18965</v>
+        <v>-74.198949999999996</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>8.8012099999999993</v>
+        <v>8.8122100000000003</v>
       </c>
       <c r="B59">
-        <v>-74.189819999999997</v>
+        <v>-74.191010000000006</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>8.8011800000000004</v>
+        <v>8.8122699999999998</v>
       </c>
       <c r="B60">
-        <v>-74.189959999999999</v>
+        <v>-74.190969999999993</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>8.80091</v>
+        <v>8.8124099999999999</v>
       </c>
       <c r="B61">
-        <v>-74.190330000000003</v>
+        <v>-74.191199999999995</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>8.8009500000000003</v>
+        <v>8.8124400000000005</v>
       </c>
       <c r="B62">
-        <v>-74.190330000000003</v>
+        <v>-74.19126</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>8.8008299999999995</v>
+        <v>8.8125499999999999</v>
       </c>
       <c r="B63">
-        <v>-74.190520000000006</v>
+        <v>-74.190340000000006</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>8.8005700000000004</v>
+        <v>8.8127200000000006</v>
       </c>
       <c r="B64">
-        <v>-74.190690000000004</v>
+        <v>-74.19144</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>8.8005700000000004</v>
+        <v>8.8130100000000002</v>
       </c>
       <c r="B65">
-        <v>-74.190690000000004</v>
+        <v>-74.191559999999996</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>8.8137899999999991</v>
-      </c>
-      <c r="B66">
-        <v>-74.189859999999996</v>
+      <c r="A66" s="1">
+        <v>8.8131000000000004</v>
+      </c>
+      <c r="B66" s="1">
+        <v>-74.203890000000001</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2181,1087 +2104,905 @@
         <v>-74.190479999999994</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>8.8124400000000005</v>
+        <v>8.8136299999999999</v>
       </c>
       <c r="B68">
-        <v>-74.19126</v>
+        <v>-74.190420000000003</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>8.8136299999999999</v>
+        <v>8.8137899999999991</v>
       </c>
       <c r="B69">
-        <v>-74.190420000000003</v>
+        <v>-74.189859999999996</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>8.8154299999999992</v>
-      </c>
-      <c r="B70">
-        <v>-74.190100000000001</v>
+      <c r="A70" s="1">
+        <v>8.8139299999999992</v>
+      </c>
+      <c r="B70" s="1">
+        <v>-74.204120000000003</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>8.8157800000000002</v>
-      </c>
-      <c r="B71">
-        <v>-74.190420000000003</v>
+      <c r="A71" s="1">
+        <v>8.8146599999999999</v>
+      </c>
+      <c r="B71" s="1">
+        <v>-74.204099999999997</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>8.8086900000000004</v>
-      </c>
-      <c r="B72">
-        <v>-74.198949999999996</v>
+      <c r="A72" s="1">
+        <v>8.8148099999999996</v>
+      </c>
+      <c r="B72" s="1">
+        <v>-74.20384</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>8.8061600000000002</v>
-      </c>
-      <c r="B73">
-        <v>-74.203320000000005</v>
+      <c r="A73" s="1">
+        <v>8.8148199999999992</v>
+      </c>
+      <c r="B73" s="1">
+        <v>-74.204059999999998</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>8.8013200000000005</v>
+        <v>8.8150499999999994</v>
       </c>
       <c r="B74">
-        <v>-74.210340000000002</v>
+        <v>-74.19032</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>8.7977500000000006</v>
+        <v>8.8151399999999995</v>
       </c>
       <c r="B75">
-        <v>-74.212959999999995</v>
+        <v>-74.190690000000004</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>8.7976299999999998</v>
+        <v>8.8154299999999992</v>
       </c>
       <c r="B76">
-        <v>-74.212710000000001</v>
+        <v>-74.190100000000001</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>8.7977299999999996</v>
-      </c>
-      <c r="B77">
-        <v>-74.212829999999997</v>
+      <c r="A77" s="1">
+        <v>8.8155599999999996</v>
+      </c>
+      <c r="B77" s="1">
+        <v>-74.203819999999993</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>8.7938399999999994</v>
+        <v>8.8157800000000002</v>
       </c>
       <c r="B78">
-        <v>-74.209530000000001</v>
+        <v>-74.190420000000003</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>8.7964400000000005</v>
-      </c>
-      <c r="B79">
-        <v>-74.206280000000007</v>
+      <c r="A79" s="1">
+        <v>8.8158300000000001</v>
+      </c>
+      <c r="B79" s="1">
+        <v>-74.20205</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>8.7941900000000004</v>
+        <v>8.8168399999999991</v>
       </c>
       <c r="B80">
-        <v>-74.202079999999995</v>
+        <v>-74.189589999999995</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>8.7939600000000002</v>
+        <v>8.8170099999999998</v>
       </c>
       <c r="B81">
-        <v>-74.201710000000006</v>
+        <v>-74.190010000000001</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>8.7891600000000007</v>
+        <v>8.8170500000000001</v>
       </c>
       <c r="B82">
-        <v>-74.21808</v>
+        <v>-74.190200000000004</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>8.8052899999999994</v>
+        <v>8.8188999999999993</v>
       </c>
       <c r="B83">
-        <v>-74.206140000000005</v>
+        <v>-74.189070000000001</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>8.8052899999999994</v>
+        <v>8.81907</v>
       </c>
       <c r="B84">
-        <v>-74.206119999999999</v>
+        <v>-74.188490000000002</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>8.8054199999999998</v>
-      </c>
-      <c r="B85">
-        <v>-74.206149999999994</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>8.8194400000000002</v>
+      </c>
+      <c r="B85" s="1">
+        <v>-74.197389999999999</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>8.8070500000000003</v>
-      </c>
-      <c r="B86">
-        <v>-74.200180000000003</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>8.8194400000000002</v>
+      </c>
+      <c r="B86" s="1">
+        <v>-74.197389999999999</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>8.8070500000000003</v>
-      </c>
-      <c r="B87">
-        <v>-74.200180000000003</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>8.8194400000000002</v>
+      </c>
+      <c r="B87" s="1">
+        <v>-74.197389999999999</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>8.8070500000000003</v>
-      </c>
-      <c r="B88">
-        <v>-74.200180000000003</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>8.8194400000000002</v>
+      </c>
+      <c r="B88" s="1">
+        <v>-74.197389999999999</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>8.8071900000000003</v>
+        <v>8.8205899999999993</v>
       </c>
       <c r="B89">
-        <v>-74.200410000000005</v>
+        <v>-74.188299999999998</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>8.8130100000000002</v>
+        <v>8.8207799999999992</v>
       </c>
       <c r="B90">
-        <v>-74.191559999999996</v>
+        <v>-74.20214</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D90" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>8.8127200000000006</v>
+        <v>8.8210200000000007</v>
       </c>
       <c r="B91">
-        <v>-74.19144</v>
+        <v>-74.187759999999997</v>
       </c>
       <c r="C91" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>8.8211899999999996</v>
+      </c>
+      <c r="B92">
+        <v>-74.18817</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>8.8214199999999998</v>
+      </c>
+      <c r="B93">
+        <v>-74.187629999999999</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>8.8217499999999998</v>
+      </c>
+      <c r="B94">
+        <v>-74.187479999999994</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>8.8217599999999994</v>
+      </c>
+      <c r="B95">
+        <v>-74.187820000000002</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>8.8218499999999995</v>
+      </c>
+      <c r="B96">
+        <v>-74.187560000000005</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>8.8218499999999995</v>
+      </c>
+      <c r="B97">
+        <v>-74.188059999999993</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>8.8218599999999991</v>
+      </c>
+      <c r="B98">
+        <v>-74.188209999999998</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>8.8221399999999992</v>
+      </c>
+      <c r="B99">
+        <v>-74.187600000000003</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>8.8222299999999994</v>
+      </c>
+      <c r="B100">
+        <v>-74.186019999999999</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>8.8222299999999994</v>
+      </c>
+      <c r="B101">
+        <v>-74.186019999999999</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>8.8222299999999994</v>
+      </c>
+      <c r="B102">
+        <v>-74.186019999999999</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>8.8222799999999992</v>
+      </c>
+      <c r="B103">
+        <v>-74.187529999999995</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>8.82254</v>
+      </c>
+      <c r="B104">
+        <v>-74.187650000000005</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>8.8225999999999996</v>
+      </c>
+      <c r="B105">
+        <v>-74.187340000000006</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>8.8228200000000001</v>
+      </c>
+      <c r="B106">
+        <v>-74.187910000000002</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>8.8229100000000003</v>
+      </c>
+      <c r="B107">
+        <v>-74.187150000000003</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>8.8122100000000003</v>
-      </c>
-      <c r="B92">
-        <v>-74.191010000000006</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D92" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>8.8122699999999998</v>
-      </c>
-      <c r="B93">
-        <v>-74.190969999999993</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D93" s="1">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>8.8124099999999999</v>
-      </c>
-      <c r="B94">
-        <v>-74.191199999999995</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D94" s="1">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>8.8125499999999999</v>
-      </c>
-      <c r="B95">
-        <v>-74.190340000000006</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D95" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>8.8229100000000003</v>
-      </c>
-      <c r="B96">
-        <v>-74.187150000000003</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>8.82254</v>
-      </c>
-      <c r="B97">
-        <v>-74.187650000000005</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D97" s="1">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>8.8225999999999996</v>
-      </c>
-      <c r="B98">
-        <v>-74.187340000000006</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>8.8218499999999995</v>
-      </c>
-      <c r="B99">
-        <v>-74.187560000000005</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>8.8214199999999998</v>
-      </c>
-      <c r="B100">
-        <v>-74.187629999999999</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>8.8222799999999992</v>
-      </c>
-      <c r="B101">
-        <v>-74.187529999999995</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>8.8218599999999991</v>
-      </c>
-      <c r="B102">
-        <v>-74.188209999999998</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>8.8218499999999995</v>
-      </c>
-      <c r="B103">
-        <v>-74.188059999999993</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>8.8217499999999998</v>
-      </c>
-      <c r="B104">
-        <v>-74.187479999999994</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>8.8205899999999993</v>
-      </c>
-      <c r="B105">
-        <v>-74.188299999999998</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>8.81907</v>
-      </c>
-      <c r="B106">
-        <v>-74.188490000000002</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>8.8217599999999994</v>
-      </c>
-      <c r="B107">
-        <v>-74.187820000000002</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>8.8188999999999993</v>
+        <v>8.8230199999999996</v>
       </c>
       <c r="B108">
-        <v>-74.189070000000001</v>
+        <v>-74.189750000000004</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>8.8170099999999998</v>
+        <v>8.8230199999999996</v>
       </c>
       <c r="B109">
-        <v>-74.190010000000001</v>
+        <v>-74.189750000000004</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>8.8170500000000001</v>
+        <v>8.8230199999999996</v>
       </c>
       <c r="B110">
-        <v>-74.190200000000004</v>
+        <v>-74.189750000000004</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>8.8168399999999991</v>
+        <v>8.8230199999999996</v>
       </c>
       <c r="B111">
-        <v>-74.189589999999995</v>
+        <v>-74.189750000000004</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>8.8150499999999994</v>
+        <v>8.8230199999999996</v>
       </c>
       <c r="B112">
-        <v>-74.19032</v>
+        <v>-74.189750000000004</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>8.8151399999999995</v>
+        <v>8.8230199999999996</v>
       </c>
       <c r="B113">
-        <v>-74.190690000000004</v>
+        <v>-74.189750000000004</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>8.8211899999999996</v>
+        <v>8.82334</v>
       </c>
       <c r="B114">
-        <v>-74.18817</v>
+        <v>-74.188280000000006</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>8.8221399999999992</v>
+        <v>8.8236500000000007</v>
       </c>
       <c r="B115">
-        <v>-74.187600000000003</v>
+        <v>-74.187010000000001</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>8.8230199999999996</v>
+        <v>8.8240300000000005</v>
       </c>
       <c r="B116">
-        <v>-74.189750000000004</v>
+        <v>-74.186880000000002</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>8.8230199999999996</v>
+        <v>8.8240800000000004</v>
       </c>
       <c r="B117">
-        <v>-74.189750000000004</v>
+        <v>-74.190259999999995</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>8.8230199999999996</v>
+        <v>8.8242700000000003</v>
       </c>
       <c r="B118">
-        <v>-74.189750000000004</v>
+        <v>-74.182329999999993</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>8.8230199999999996</v>
+        <v>8.8244100000000003</v>
       </c>
       <c r="B119">
-        <v>-74.189750000000004</v>
+        <v>-74.186959999999999</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>8.8230199999999996</v>
+        <v>8.8248200000000008</v>
       </c>
       <c r="B120">
-        <v>-74.189750000000004</v>
+        <v>-74.190420000000003</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>8.8230199999999996</v>
+        <v>8.8251500000000007</v>
       </c>
       <c r="B121">
-        <v>-74.189750000000004</v>
+        <v>-74.186980000000005</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>8.8343100000000003</v>
+        <v>8.8252100000000002</v>
       </c>
       <c r="B122">
-        <v>-74.178259999999995</v>
+        <v>-74.182509999999994</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>8.80016</v>
+        <v>8.8262</v>
       </c>
       <c r="B123">
-        <v>-74.190550000000002</v>
+        <v>-74.190420000000003</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>8.80016</v>
+        <v>8.8262499999999999</v>
       </c>
       <c r="B124">
-        <v>-74.190550000000002</v>
+        <v>-74.182829999999996</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>8.8207799999999992</v>
+        <v>8.8262999999999998</v>
       </c>
       <c r="B125">
-        <v>-74.20214</v>
+        <v>-74.186610000000002</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
-        <v>8.79861</v>
-      </c>
-      <c r="B126" s="1">
-        <v>-74.21396</v>
+        <v>8.8270700000000009</v>
+      </c>
+      <c r="B126" s="4">
+        <v>-74.190299999999993</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
-        <v>8.7932100000000002</v>
-      </c>
-      <c r="B127" s="1">
-        <v>-74.206320000000005</v>
+        <v>8.8275000000000006</v>
+      </c>
+      <c r="B127" s="4">
+        <v>-74.186310000000006</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
-        <v>8.8014869999999998</v>
-      </c>
-      <c r="B128" s="1">
-        <v>-74.216683000000003</v>
+      <c r="A128" s="4">
+        <v>8.8280799999999999</v>
+      </c>
+      <c r="B128" s="4">
+        <v>-74.183999999999997</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="7">
-        <v>8.7887500000000003</v>
-      </c>
-      <c r="B129" s="7">
-        <v>-74.201861111111114</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
+        <v>8.8283299999999993</v>
+      </c>
+      <c r="B129" s="4">
+        <v>-74.183390000000003</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D129" s="6"/>
-      <c r="K129" s="6"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="7">
-        <v>8.7895833333333329</v>
-      </c>
-      <c r="B130" s="7">
-        <v>-74.201333333333338</v>
+        <v>35</v>
+      </c>
+      <c r="J129" s="6"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>8.8305000000000007</v>
+      </c>
+      <c r="B130" s="1">
+        <v>-74.176540000000003</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D130" s="6"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="7">
-        <v>8.7895833333333329</v>
-      </c>
-      <c r="B131" s="7">
-        <v>-74.201333333333338</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>8.8305000000000007</v>
+      </c>
+      <c r="B131" s="1">
+        <v>-74.176540000000003</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D131" s="6"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="7">
-        <v>8.7889166666666672</v>
-      </c>
-      <c r="B132" s="7">
-        <v>-74.201999999999998</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>8.8305000000000007</v>
+      </c>
+      <c r="B132" s="1">
+        <v>-74.176540000000003</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D132" s="6"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133" s="7">
-        <v>8.7889166666666672</v>
-      </c>
-      <c r="B133" s="7">
-        <v>-74.201999999999998</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>8.8315599999999996</v>
+      </c>
+      <c r="B133" s="1">
+        <v>-74.175089999999997</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D133" s="6"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A134" s="3">
-        <v>8.7838899999999995</v>
-      </c>
-      <c r="B134" s="3">
-        <v>74.195779999999999</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>8.8315599999999996</v>
+      </c>
+      <c r="B134" s="1">
+        <v>-74.175089999999997</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135" s="3">
-        <v>8.7838899999999995</v>
-      </c>
-      <c r="B135" s="3">
-        <v>74.195779999999999</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>8.8315599999999996</v>
+      </c>
+      <c r="B135" s="1">
+        <v>-74.175089999999997</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D135" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136" s="3">
-        <v>8.7838899999999995</v>
-      </c>
-      <c r="B136" s="3">
-        <v>74.195779999999999</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>8.8315599999999996</v>
+      </c>
+      <c r="B136" s="1">
+        <v>-74.175089999999997</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" s="3">
-        <v>8.7838899999999995</v>
-      </c>
-      <c r="B137" s="3">
-        <v>74.195779999999999</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>8.8315599999999996</v>
+      </c>
+      <c r="B137" s="1">
+        <v>-74.175089999999997</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
-        <v>8.8001299999999993</v>
-      </c>
-      <c r="B138" s="1">
-        <v>-74.198499999999996</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="4">
+        <v>8.8343100000000003</v>
+      </c>
+      <c r="B138" s="4">
+        <v>-74.178259999999995</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>8.8001299999999993</v>
+        <v>9.0379000000000005</v>
       </c>
       <c r="B139" s="1">
-        <v>-74.198499999999996</v>
+        <v>-74.035430000000005</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>8.8001299999999993</v>
+        <v>9.0379609999999992</v>
       </c>
       <c r="B140" s="1">
-        <v>-74.198499999999996</v>
+        <v>-74.031390000000002</v>
       </c>
       <c r="C140" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>9.0379609999999992</v>
+      </c>
+      <c r="B141" s="1">
+        <v>-74.031390000000002</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>9.0379609999999992</v>
+      </c>
+      <c r="B142" s="1">
+        <v>-74.031390000000002</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>9.0379609999999992</v>
+      </c>
+      <c r="B143" s="1">
+        <v>-74.031390000000002</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>9.0380199999999995</v>
+      </c>
+      <c r="B144" s="1">
+        <v>-74.031203000000005</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>9.0380199999999995</v>
+      </c>
+      <c r="B145" s="1">
+        <v>-74.031203000000005</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>9.0380199999999995</v>
+      </c>
+      <c r="B146" s="1">
+        <v>-74.031203000000005</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>9.0380400000000005</v>
+      </c>
+      <c r="B147" s="1">
+        <v>-74.03528</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C141" s="5" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>9.0381599999999995</v>
+      </c>
+      <c r="B148" s="1">
+        <v>-74.034409999999994</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D142" s="1">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D144" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
-        <v>8.8305000000000007</v>
-      </c>
-      <c r="B147" s="1">
-        <v>-74.176540000000003</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
-        <v>8.8305000000000007</v>
-      </c>
-      <c r="B148" s="1">
-        <v>-74.176540000000003</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
-        <v>8.8305000000000007</v>
-      </c>
-      <c r="B149" s="1">
-        <v>-74.176540000000003</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
-        <v>9.0379000000000005</v>
-      </c>
-      <c r="B151" s="1">
-        <v>-74.035430000000005</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
-        <v>9.0380400000000005</v>
-      </c>
-      <c r="B152" s="1">
-        <v>-74.03528</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
-        <v>9.0381599999999995</v>
-      </c>
-      <c r="B153" s="1">
-        <v>-74.034409999999994</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
-        <v>9.0379609999999992</v>
-      </c>
-      <c r="B154" s="1">
-        <v>-74.031390000000002</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D154" s="1">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
-        <v>9.0379609999999992</v>
-      </c>
-      <c r="B155" s="1">
-        <v>-74.031390000000002</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D155" s="1">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
-        <v>9.0379609999999992</v>
-      </c>
-      <c r="B156" s="1">
-        <v>-74.031390000000002</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D156" s="1">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
-        <v>9.0379609999999992</v>
-      </c>
-      <c r="B157" s="1">
-        <v>-74.031390000000002</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D157" s="1">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
-        <v>9.0380199999999995</v>
-      </c>
-      <c r="B158" s="1">
-        <v>-74.031203000000005</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D158" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
-        <v>9.0380199999999995</v>
-      </c>
-      <c r="B159" s="1">
-        <v>-74.031203000000005</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
-        <v>9.0380199999999995</v>
-      </c>
-      <c r="B160" s="1">
-        <v>-74.031203000000005</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C148">
+    <sortCondition ref="A2:A148"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
